--- a/Dicionario de dados.xlsx
+++ b/Dicionario de dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DG USER\Desktop\FACULDADE\2022_2\projetos\Analise_Projetos_SistemasII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DG USER\eclipse-workspace\versões\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709AE11-CBEA-4ACE-830A-54287F311F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82BB9D-C2D4-4C82-9AB9-95EEBD8B7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8F55026-68A9-4782-898B-4AED42D13D42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Descrição</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Telefone</t>
-  </si>
-  <si>
-    <t>346.300.118-70</t>
   </si>
   <si>
     <t>placa</t>
@@ -700,8 +697,8 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,9 +785,7 @@
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -812,19 +807,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="F7" s="11"/>
     </row>
